--- a/src/test/java/Contract_1606122467519.xlsx
+++ b/src/test/java/Contract_1606122467519.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="FileUploadExport" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>序号</t>
   </si>
@@ -45,6 +46,438 @@
   <si>
     <t>激活码</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权码管理：</t>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>非空字段未校验。</t>
+    </r>
+  </si>
+  <si>
+    <t>√</t>
+  </si>
+  <si>
+    <r>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新增授权码时默认选中第一个类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>虹软</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新增授权码时默认选中状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>未分配</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新增、编辑授权码重复时应明确提示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>相同类型、相同订单授权码不允许重复</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>导入弹窗应提供下载模板的链接。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>6.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件上传组件应使用中文组件，使用太复杂，需更换。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>7.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>导入完成后应自动关闭文件上传弹框并刷新数据。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>8.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>列表默认按订单时间、订单号、授权码创建时间排序。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>9.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授权码分配后不允许继续编辑、删除。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>10.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>显示编辑弹框后，不修改授权码，直接保存报错，可能是判断重复逻辑有问题。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>相同类型，相同订单号不需要重复保存。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>12.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>菜单改为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授权码管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>设备配置：</t>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分配授权码，点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>确定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时后台报空指针。</t>
+    </r>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <r>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>后续逻辑无法继续检查</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>......</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -54,7 +487,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -121,6 +554,20 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -160,12 +607,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -202,22 +650,31 @@
     <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
       <color rgb="FFFF0000"/>
     </mruColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -481,7 +938,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
@@ -1744,4 +2201,141 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="76.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="14.25">
+      <c r="A1" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="12"/>
+    </row>
+    <row r="2" spans="1:2" ht="14.25">
+      <c r="A2" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="14.25">
+      <c r="A3" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="14.25">
+      <c r="A4" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="14.25">
+      <c r="A5" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="14.25">
+      <c r="A6" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="12"/>
+    </row>
+    <row r="7" spans="1:2" ht="14.25">
+      <c r="A7" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="12"/>
+    </row>
+    <row r="8" spans="1:2" ht="14.25">
+      <c r="A8" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="12"/>
+    </row>
+    <row r="9" spans="1:2" ht="14.25">
+      <c r="A9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="14.25">
+      <c r="A10" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="14.25">
+      <c r="A11" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="14.25">
+      <c r="A12" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="14.25">
+      <c r="A13" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="14.25">
+      <c r="A15" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="12"/>
+    </row>
+    <row r="16" spans="1:2" ht="14.25">
+      <c r="A16" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="14.25">
+      <c r="A17" s="16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="15"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>